--- a/Documents/Foodies_CR.xlsx
+++ b/Documents/Foodies_CR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,44 @@
   </si>
   <si>
     <t>Change Request</t>
+  </si>
+  <si>
+    <t>Foodies_CR_001</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Foodies</t>
+  </si>
+  <si>
+    <t>make all fields of add restuarants page mandatory</t>
+  </si>
+  <si>
+    <t>1- change items from optional to mandatory field
+2- change price from optional to mandatory field
+3- change promotions from optional to mandatory field</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t>Eng.Mohamed Hassan</t>
+  </si>
+  <si>
+    <t>Mariam nesim</t>
+  </si>
+  <si>
+    <t>23/5/2019</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>10 min</t>
   </si>
 </sst>
 </file>
@@ -102,19 +140,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -128,23 +218,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:N5" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:N5" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A4:N5"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Type"/>
-    <tableColumn id="3" name="Product Name"/>
-    <tableColumn id="18" name="Title"/>
-    <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="Priority"/>
-    <tableColumn id="6" name="Severity"/>
-    <tableColumn id="7" name="Originator"/>
-    <tableColumn id="8" name="Modifer"/>
-    <tableColumn id="19" name="Verifier"/>
-    <tableColumn id="9" name="Status"/>
-    <tableColumn id="10" name="Date Submitted"/>
-    <tableColumn id="11" name="Date Updated"/>
-    <tableColumn id="12" name="Estimated Hours"/>
+    <tableColumn id="1" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" name="Type" dataDxfId="13"/>
+    <tableColumn id="3" name="Product Name" dataDxfId="12"/>
+    <tableColumn id="18" name="Title" dataDxfId="11"/>
+    <tableColumn id="4" name="Description" dataDxfId="10"/>
+    <tableColumn id="5" name="Priority" dataDxfId="9"/>
+    <tableColumn id="6" name="Severity" dataDxfId="8"/>
+    <tableColumn id="7" name="Originator" dataDxfId="7"/>
+    <tableColumn id="8" name="Modifer" dataDxfId="6"/>
+    <tableColumn id="19" name="Verifier" dataDxfId="5"/>
+    <tableColumn id="9" name="Status" dataDxfId="4"/>
+    <tableColumn id="10" name="Date Submitted" dataDxfId="3"/>
+    <tableColumn id="11" name="Date Updated" dataDxfId="2"/>
+    <tableColumn id="12" name="Estimated Hours" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,62 +527,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.84375" customWidth="1"/>
+    <col min="2" max="2" width="11.15234375" customWidth="1"/>
+    <col min="3" max="3" width="23.3046875" customWidth="1"/>
+    <col min="4" max="4" width="43.23046875" customWidth="1"/>
+    <col min="5" max="5" width="46.921875" customWidth="1"/>
+    <col min="6" max="6" width="16.921875" customWidth="1"/>
+    <col min="7" max="7" width="12.84375" customWidth="1"/>
+    <col min="8" max="8" width="21.23046875" customWidth="1"/>
+    <col min="9" max="10" width="15.53515625" customWidth="1"/>
+    <col min="11" max="11" width="15.07421875" customWidth="1"/>
+    <col min="12" max="12" width="18.69140625" customWidth="1"/>
+    <col min="13" max="13" width="17.69140625" customWidth="1"/>
+    <col min="14" max="14" width="21.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -534,6 +626,47 @@
       </c>
       <c r="N4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Foodies_CR.xlsx
+++ b/Documents/Foodies_CR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <t>10 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foodies_SRS_038
+</t>
+  </si>
+  <si>
+    <t>SRS_ID</t>
   </si>
 </sst>
 </file>
@@ -149,60 +156,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -218,10 +228,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:N5" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A4:N5"/>
-  <tableColumns count="14">
-    <tableColumn id="1" name="ID" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:O5" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A4:O5"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="ID" dataDxfId="15"/>
+    <tableColumn id="14" name="SRS_ID" dataDxfId="14"/>
     <tableColumn id="2" name="Type" dataDxfId="13"/>
     <tableColumn id="3" name="Product Name" dataDxfId="12"/>
     <tableColumn id="18" name="Title" dataDxfId="11"/>
@@ -527,30 +538,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.84375" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" customWidth="1"/>
-    <col min="3" max="3" width="23.3046875" customWidth="1"/>
-    <col min="4" max="4" width="43.23046875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" customWidth="1"/>
     <col min="5" max="5" width="46.921875" customWidth="1"/>
-    <col min="6" max="6" width="16.921875" customWidth="1"/>
+    <col min="6" max="6" width="33.69140625" customWidth="1"/>
     <col min="7" max="7" width="12.84375" customWidth="1"/>
-    <col min="8" max="8" width="21.23046875" customWidth="1"/>
-    <col min="9" max="10" width="15.53515625" customWidth="1"/>
+    <col min="8" max="8" width="12.07421875" customWidth="1"/>
+    <col min="9" max="9" width="19.69140625" customWidth="1"/>
+    <col min="10" max="10" width="15.53515625" customWidth="1"/>
     <col min="11" max="11" width="15.07421875" customWidth="1"/>
     <col min="12" max="12" width="18.69140625" customWidth="1"/>
     <col min="13" max="13" width="17.69140625" customWidth="1"/>
     <col min="14" max="14" width="21.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -568,7 +580,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -584,88 +596,94 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>12</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Documents/Foodies_CR.xlsx
+++ b/Documents/Foodies_CR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Hossam Galal</t>
-  </si>
-  <si>
-    <t>Eng.Mohamed Hassan</t>
   </si>
   <si>
     <t>Mariam nesim</t>
@@ -149,57 +146,24 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -209,7 +173,40 @@
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -228,18 +225,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:O5" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:O5" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="A4:O5"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="ID" dataDxfId="15"/>
-    <tableColumn id="14" name="SRS_ID" dataDxfId="14"/>
-    <tableColumn id="2" name="Type" dataDxfId="13"/>
-    <tableColumn id="3" name="Product Name" dataDxfId="12"/>
-    <tableColumn id="18" name="Title" dataDxfId="11"/>
-    <tableColumn id="4" name="Description" dataDxfId="10"/>
-    <tableColumn id="5" name="Priority" dataDxfId="9"/>
-    <tableColumn id="6" name="Severity" dataDxfId="8"/>
-    <tableColumn id="7" name="Originator" dataDxfId="7"/>
+    <tableColumn id="1" name="ID" dataDxfId="14"/>
+    <tableColumn id="14" name="SRS_ID" dataDxfId="13"/>
+    <tableColumn id="2" name="Type" dataDxfId="12"/>
+    <tableColumn id="3" name="Product Name" dataDxfId="11"/>
+    <tableColumn id="18" name="Title" dataDxfId="10"/>
+    <tableColumn id="4" name="Description" dataDxfId="9"/>
+    <tableColumn id="5" name="Priority" dataDxfId="8"/>
+    <tableColumn id="6" name="Severity" dataDxfId="7"/>
+    <tableColumn id="7" name="Originator" dataDxfId="0"/>
     <tableColumn id="8" name="Modifer" dataDxfId="6"/>
     <tableColumn id="19" name="Verifier" dataDxfId="5"/>
     <tableColumn id="9" name="Status" dataDxfId="4"/>
@@ -560,48 +557,49 @@
     <col min="12" max="12" width="18.69140625" customWidth="1"/>
     <col min="13" max="13" width="17.69140625" customWidth="1"/>
     <col min="14" max="14" width="21.53515625" customWidth="1"/>
+    <col min="15" max="15" width="21.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -643,48 +641,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="145.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
